--- a/servidor/plantillasVacias/Catalogo Horarios.xlsx
+++ b/servidor/plantillasVacias/Catalogo Horarios.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennytipan\Desktop\ProyectoFulltime\FullTimeV3\servidor\plantillasVacias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BBDAE9-923F-4F00-B6BB-103285E14120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B341E-D9D3-468E-A964-EBEB70F041A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17415" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CatalogoHorario" sheetId="1" r:id="rId1"/>
-    <sheet name="Selectores" sheetId="2" r:id="rId2"/>
+    <sheet name="Selectores" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>nombre_horario</t>
   </si>
@@ -32,12 +32,6 @@
     <t>hora_trabajo</t>
   </si>
   <si>
-    <t>flexible</t>
-  </si>
-  <si>
-    <t>por_horas</t>
-  </si>
-  <si>
     <t>Eliminar Fila: Horario1</t>
   </si>
   <si>
@@ -51,6 +45,9 @@
   </si>
   <si>
     <t>Eliminar Fila</t>
+  </si>
+  <si>
+    <t>horario_nocturno</t>
   </si>
 </sst>
 </file>
@@ -469,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -480,11 +477,11 @@
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -495,41 +492,38 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="b">
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -538,7 +532,7 @@
           <x14:formula1>
             <xm:f>Selectores!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D2327 E2:E1879</xm:sqref>
+          <xm:sqref>D2:D2327</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -558,7 +552,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
